--- a/biology/Botanique/Lonicera_xylosteum/Lonicera_xylosteum.xlsx
+++ b/biology/Botanique/Lonicera_xylosteum/Lonicera_xylosteum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Chèvrefeuille des haies ou Chèvrefeuille à balais (Lonicera xylosteum) est une espèce d'arbustes de la famille des Caprifoliacées. Il est parfois appelé Camérisier des haies, Camerisier à balais[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Chèvrefeuille des haies ou Chèvrefeuille à balais (Lonicera xylosteum) est une espèce d'arbustes de la famille des Caprifoliacées. Il est parfois appelé Camérisier des haies, Camerisier à balais.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Xylosteum, du grec ξύλον - xulon, bois et ὀστέον - osteon, os, en raison de l'aspect des entrenœuds qui font penser à des os.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lonicera xylosteum est un arbrisseau d'une hauteur de 1 à 3 m[1] environ, à feuilles caduques, simples, opposées, poilues sur les deux faces[1] et non dentées. Les fleurs sont blanc-jaunâtre à deux lèvres, groupées par deux. A maturité, les fruits sont des baies rouges luisant, globuleuses, réunies par 2 et légèrement soudées à la base[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lonicera xylosteum est un arbrisseau d'une hauteur de 1 à 3 m environ, à feuilles caduques, simples, opposées, poilues sur les deux faces et non dentées. Les fleurs sont blanc-jaunâtre à deux lèvres, groupées par deux. A maturité, les fruits sont des baies rouges luisant, globuleuses, réunies par 2 et légèrement soudées à la base.
 Son port est très buissonnant. Les tiges grêles sont en majorité dressées, puis elles s'étalent tout en retombant. Son écorce est grisâtre, celle-ci se détache d'une manière précoce en fines lanières longitudinales.
 </t>
         </is>
@@ -576,19 +592,16 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Organes reproducteurs
-Type d'inflorescence : cyme multipare
+          <t>Organes reproducteurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Type d'inflorescence : cyme multipare
 Répartition des sexes : hermaphrodite
 Type de pollinisation : entomogame
-Période de floraison : mai à juin
-Graine
-Type de fruit : baie
-Mode de dissémination : endozoochore
-Habitat et répartition
-Habitat type : fourrés arbustifs médioeuropéens, planitiaires-montagnards, mésotrophiles, basophiles.
-Aire de répartition : eurasiatique septentrional
-Confusions possibles avec d'autres plantes
-Viorne obier[2]</t>
+Période de floraison : mai à juin</t>
         </is>
       </c>
     </row>
@@ -613,13 +626,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Propriétés[2]</t>
+          <t>Caractéristiques[3].</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les baies sont toxiques quelle que soit leur couleur, très riches en saponines, pouvant provoquer l'hémolyse. Leur consommation provoque des vomissements et des palpitations.
-</t>
+          <t>Graine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Type de fruit : baie
+Mode de dissémination : endozoochore</t>
         </is>
       </c>
     </row>
@@ -644,13 +663,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Parasite</t>
+          <t>Caractéristiques[3].</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chromatomyia lonicerae, la Mineuse du Camerisier est un insecte dont les larves se développent dans les feuilles de Lonicera xylosteum[4].
-</t>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Habitat type : fourrés arbustifs médioeuropéens, planitiaires-montagnards, mésotrophiles, basophiles.
+Aire de répartition : eurasiatique septentrional</t>
         </is>
       </c>
     </row>
@@ -675,13 +700,120 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Caractéristiques[3].</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Confusions possibles avec d'autres plantes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Viorne obier</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lonicera_xylosteum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lonicera_xylosteum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Propriétés[2]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les baies sont toxiques quelle que soit leur couleur, très riches en saponines, pouvant provoquer l'hémolyse. Leur consommation provoque des vomissements et des palpitations.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lonicera_xylosteum</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lonicera_xylosteum</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Parasite</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chromatomyia lonicerae, la Mineuse du Camerisier est un insecte dont les larves se développent dans les feuilles de Lonicera xylosteum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lonicera_xylosteum</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lonicera_xylosteum</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calendrier républicain
-Dans le calendrier républicain, le Chamérisier était le nom attribué au 14e jour du mois de floréal[5] généralement chaque 3 mai du calendrier grégorien.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le calendrier républicain, le Chamérisier était le nom attribué au 14e jour du mois de floréal généralement chaque 3 mai du calendrier grégorien.
 Sur les autres projets Wikimedia :
 Lonicera xylosteum, sur Wikimedia CommonsLonicera xylosteum, sur Wikispecies
 </t>
